--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82A893-EBD9-408E-88D9-FF570F42C832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="600" windowWidth="32720" windowHeight="23980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="179021" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>Your game starts</t>
   </si>
@@ -289,11 +300,14 @@
   <si>
     <t>You do not support console input AND do not have a GUI</t>
   </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -514,6 +528,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -838,20 +860,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="57.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -868,7 +890,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -877,7 +899,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -886,7 +908,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
@@ -897,7 +919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -911,7 +933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -923,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -935,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -947,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -966,48 +988,48 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15">
@@ -1020,12 +1042,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="2"/>
@@ -1038,12 +1060,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" t="s">
@@ -1059,12 +1081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18">
@@ -1080,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1206,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1290,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1395,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1437,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1521,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1542,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1563,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1596,7 +1618,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1638,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1704,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1699,7 +1721,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1711,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -1723,12 +1745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1740,12 +1762,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -1757,7 +1779,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1769,12 +1791,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -1798,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -1810,10 +1832,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1823,7 +1845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1852,12 +1874,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -1866,7 +1888,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -1875,7 +1897,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>71</v>
       </c>

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82A893-EBD9-408E-88D9-FF570F42C832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E1738-08AA-4A2C-8509-8C060C6D2F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" t="s">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E1738-08AA-4A2C-8509-8C060C6D2F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C052297-4A89-45F4-BE9C-C6FAA81A1BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6">
@@ -1065,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" t="s">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C052297-4A89-45F4-BE9C-C6FAA81A1BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BAF31-2458-4D57-B7A5-CFD68DB99147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19">
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BAF31-2458-4D57-B7A5-CFD68DB99147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696F1A8-9947-4843-A0F2-B5075DF31939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21">
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696F1A8-9947-4843-A0F2-B5075DF31939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7A585-C160-4EAF-8D4B-5FA24858064C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7A585-C160-4EAF-8D4B-5FA24858064C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6881B0C2-62B7-46EC-BF2F-AD88DFB9DF2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6881B0C2-62B7-46EC-BF2F-AD88DFB9DF2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D18E3-706C-4F24-ADD0-5723B2D8E4F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26">
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D18E3-706C-4F24-ADD0-5723B2D8E4F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C27D98-017A-439F-8FFD-754942EFE8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28">
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C27D98-017A-439F-8FFD-754942EFE8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77ADF2-6286-44C0-BEE5-425005BE6406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31">
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77ADF2-6286-44C0-BEE5-425005BE6406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86ADA0-8C77-4C6F-A40E-510294A459AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1401,7 +1401,7 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33">
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34">
@@ -1443,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86ADA0-8C77-4C6F-A40E-510294A459AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC57CB-ED2B-41DE-BFDE-85A6782B21E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1464,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC57CB-ED2B-41DE-BFDE-85A6782B21E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25863B14-BAC2-45F2-8505-2EEC7345FC00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1569,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41">
@@ -1590,7 +1590,7 @@
         <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25863B14-BAC2-45F2-8505-2EEC7345FC00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFF49F-00A1-415E-8D28-7E5593A72AFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>Your game starts</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Pardo Antigua</t>
   </si>
 </sst>
 </file>
@@ -863,14 +869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="4"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -880,15 +887,21 @@
       <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2">
+        <v>100948836</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -938,7 +951,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6">
@@ -1623,7 +1636,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44">
@@ -1644,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFF49F-00A1-415E-8D28-7E5593A72AFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9C6E8C-AEDD-482C-8B77-42722A74DF93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
@@ -1330,7 +1330,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9C6E8C-AEDD-482C-8B77-42722A74DF93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C291DA-BC2C-489A-B8A8-DDC2F8AEEF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="85">
   <si>
     <t>Your game starts</t>
   </si>
@@ -352,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -454,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -464,6 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -869,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -947,7 +954,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -959,7 +966,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -971,7 +978,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -983,7 +990,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1494,7 +1501,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1515,7 +1522,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1536,7 +1543,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1557,7 +1564,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C291DA-BC2C-489A-B8A8-DDC2F8AEEF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459E9FD-9D52-48EA-8F2E-D5B00935FCD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1501,11 +1501,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
@@ -1522,11 +1522,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
@@ -1543,11 +1543,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
@@ -1564,11 +1564,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40">
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1725,7 +1725,7 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1742,7 +1742,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1766,12 +1766,12 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1783,12 +1783,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1812,12 +1812,12 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1829,7 +1829,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="2" t="s">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459E9FD-9D52-48EA-8F2E-D5B00935FCD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F72544-F0FF-436F-99A8-67DB90C69853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="85">
   <si>
     <t>Your game starts</t>
   </si>
@@ -877,7 +877,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A31" sqref="A31:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F72544-F0FF-436F-99A8-67DB90C69853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25DF75-3F2F-4319-AD3E-54B5ED46E055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>Your game starts</t>
   </si>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A35"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -954,11 +954,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6">
@@ -990,11 +990,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(J16:J45)</f>
@@ -1681,11 +1681,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47">
@@ -1693,11 +1693,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48">
@@ -1708,11 +1708,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49">
@@ -1725,11 +1725,11 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50">
@@ -1742,11 +1742,11 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51">
@@ -1754,11 +1754,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52">
@@ -1766,16 +1766,16 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54">
@@ -1783,16 +1783,16 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56">
@@ -1800,11 +1800,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57">

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25DF75-3F2F-4319-AD3E-54B5ED46E055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED717D8-DC67-4172-A5C6-B2DCA77F88F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Your game starts</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>in presence of splitting, winner is correctly chosen</t>
-  </si>
-  <si>
-    <t>yes/no</t>
   </si>
   <si>
     <t>You have coded your dependencies using Maven</t>
@@ -308,6 +305,102 @@
   </si>
   <si>
     <t>Pardo Antigua</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>test_File_Input()</t>
+  </si>
+  <si>
+    <t>test_Console_Input()</t>
+  </si>
+  <si>
+    <t>test_Choose_FC()</t>
+  </si>
+  <si>
+    <t>test_See_Two_Cards()</t>
+  </si>
+  <si>
+    <t>test_See_One_Card()</t>
+  </si>
+  <si>
+    <t>test_Player_Hit()</t>
+  </si>
+  <si>
+    <t>test_Player_Multi_Hits()</t>
+  </si>
+  <si>
+    <t>test_Player_Stand()</t>
+  </si>
+  <si>
+    <t>test_Display_Player_Hand_End()</t>
+  </si>
+  <si>
+    <t>test_Player_Bust()</t>
+  </si>
+  <si>
+    <t>test_Dealer_16()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Soft_17()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Repeat_Hit()</t>
+  </si>
+  <si>
+    <t>test_Display_Dealer_Hand_End()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Bust()</t>
+  </si>
+  <si>
+    <t>test_Ace_1()</t>
+  </si>
+  <si>
+    <t>test_Ace_11()</t>
+  </si>
+  <si>
+    <t>test_Aces_1_11()</t>
+  </si>
+  <si>
+    <t>test_Aces_11_1()</t>
+  </si>
+  <si>
+    <t>test_Aces_1_1()</t>
+  </si>
+  <si>
+    <t>test_Face_Cards_Values()</t>
+  </si>
+  <si>
+    <t>test_Player_Blackjack()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Blackjack()</t>
+  </si>
+  <si>
+    <t>test_Player_Blackjack_Win()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Blackjack_Win()</t>
+  </si>
+  <si>
+    <t>test_Player_Score()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Score()</t>
+  </si>
+  <si>
+    <t>test_Highest_Score_Player_Wins()</t>
+  </si>
+  <si>
+    <t>test_Highest_Score_Player_Loses()</t>
+  </si>
+  <si>
+    <t>test_Player_Split()</t>
+  </si>
+  <si>
+    <t>test_Dealer_Split()</t>
   </si>
 </sst>
 </file>
@@ -352,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,12 +470,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -460,7 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -470,7 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -876,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -889,22 +975,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
       </c>
       <c r="G1" s="2">
         <v>100948836</v>
@@ -912,53 +998,53 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6">
@@ -966,11 +1052,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>30</v>
+      <c r="A7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7">
@@ -978,11 +1064,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>31</v>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8">
@@ -991,10 +1077,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(J16:J45)</f>
@@ -1005,15 +1091,15 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11">
@@ -1022,10 +1108,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -1034,10 +1120,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14">
@@ -1049,28 +1135,30 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15">
         <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1082,16 +1170,18 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1106,13 +1196,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18">
         <v>0.5</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1127,13 +1219,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19">
         <v>0.5</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1148,13 +1242,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1169,13 +1265,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1190,13 +1288,15 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1211,13 +1311,15 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1229,16 +1331,18 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
         <v>0.5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1250,16 +1354,18 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25">
         <v>0.5</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1274,13 +1380,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1295,13 +1403,15 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1316,13 +1426,15 @@
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1337,13 +1449,15 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1358,13 +1472,15 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1379,13 +1495,15 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31">
         <v>0.5</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1400,13 +1518,15 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32">
         <v>0.5</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1418,16 +1538,18 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33">
         <v>0.5</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1442,13 +1564,15 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1460,16 +1584,18 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35">
         <v>0.5</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1484,13 +1610,15 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36">
         <v>0.5</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1505,13 +1633,15 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1526,13 +1656,15 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1544,16 +1676,18 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1568,13 +1702,15 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1586,16 +1722,18 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1607,16 +1745,18 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1640,16 +1780,18 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1664,13 +1806,15 @@
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1685,7 +1829,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47">
@@ -1697,28 +1841,30 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48">
         <v>0.5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1726,16 +1872,18 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1743,10 +1891,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51">
@@ -1755,10 +1903,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52">
@@ -1767,15 +1915,15 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54">
@@ -1784,15 +1932,15 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56">
@@ -1804,7 +1952,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57">
@@ -1812,16 +1960,16 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>60</v>
+      <c r="A59" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>34</v>
+      <c r="A60" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60">
@@ -1829,11 +1977,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>35</v>
+      <c r="A61" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61">
@@ -1841,11 +1989,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>36</v>
+      <c r="A62" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62">
@@ -1857,7 +2005,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4"/>
       <c r="D64">
@@ -1867,18 +2015,18 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67">
@@ -1887,7 +2035,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68">
@@ -1896,12 +2044,12 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71">
@@ -1910,7 +2058,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72">
@@ -1919,7 +2067,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73">
@@ -1928,7 +2076,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="7">
         <f>SUM(C6:C74)</f>

--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Documents\School\University\Present_Classes\COMP_3004\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED717D8-DC67-4172-A5C6-B2DCA77F88F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D599A1-CA69-4489-9A95-0207FF2CD90A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3084" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,97 +310,97 @@
     <t>no</t>
   </si>
   <si>
-    <t>test_File_Input()</t>
-  </si>
-  <si>
-    <t>test_Console_Input()</t>
-  </si>
-  <si>
-    <t>test_Choose_FC()</t>
-  </si>
-  <si>
-    <t>test_See_Two_Cards()</t>
-  </si>
-  <si>
-    <t>test_See_One_Card()</t>
-  </si>
-  <si>
-    <t>test_Player_Hit()</t>
-  </si>
-  <si>
-    <t>test_Player_Multi_Hits()</t>
-  </si>
-  <si>
-    <t>test_Player_Stand()</t>
-  </si>
-  <si>
-    <t>test_Display_Player_Hand_End()</t>
-  </si>
-  <si>
-    <t>test_Player_Bust()</t>
-  </si>
-  <si>
-    <t>test_Dealer_16()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Soft_17()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Repeat_Hit()</t>
-  </si>
-  <si>
-    <t>test_Display_Dealer_Hand_End()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Bust()</t>
-  </si>
-  <si>
-    <t>test_Ace_1()</t>
-  </si>
-  <si>
-    <t>test_Ace_11()</t>
-  </si>
-  <si>
-    <t>test_Aces_1_11()</t>
-  </si>
-  <si>
-    <t>test_Aces_11_1()</t>
-  </si>
-  <si>
-    <t>test_Aces_1_1()</t>
-  </si>
-  <si>
-    <t>test_Face_Cards_Values()</t>
-  </si>
-  <si>
-    <t>test_Player_Blackjack()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Blackjack()</t>
-  </si>
-  <si>
-    <t>test_Player_Blackjack_Win()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Blackjack_Win()</t>
-  </si>
-  <si>
-    <t>test_Player_Score()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Score()</t>
-  </si>
-  <si>
-    <t>test_Highest_Score_Player_Wins()</t>
-  </si>
-  <si>
-    <t>test_Highest_Score_Player_Loses()</t>
-  </si>
-  <si>
-    <t>test_Player_Split()</t>
-  </si>
-  <si>
-    <t>test_Dealer_Split()</t>
+    <t>WinTest.java -&gt; test_File_Input()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Console_Input()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Choose_FC()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_See_Two_Cards()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_See_One_Card()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Hit()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Multi_Hits()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Stand()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Display_Player_Hand_End()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Bust()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_16()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Soft_17()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Repeat_Hit()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Display_Dealer_Hand_End()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Bust()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Ace_1()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Ace_11()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Aces_1_11()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Aces_11_1()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Aces_1_1()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Face_Cards_Values()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Blackjack()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Blackjack()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Blackjack_Win()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Blackjack_Win()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Score()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Score()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Highest_Score_Player_Wins()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Highest_Score_Player_Loses()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Player_Split()</t>
+  </si>
+  <si>
+    <t>WinTest.java -&gt; test_Dealer_Split()</t>
   </si>
 </sst>
 </file>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
